--- a/task1_parse_text/data/dictrict_city.xlsx
+++ b/task1_parse_text/data/dictrict_city.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Quận 1</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>city</t>
-  </si>
-  <si>
-    <t>Phú Yên</t>
   </si>
 </sst>
 </file>
@@ -515,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,11 +922,6 @@
       </c>
       <c r="B50" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
